--- a/public/assets/templates/20251209_template_beban_kerja.xlsx
+++ b/public/assets/templates/20251209_template_beban_kerja.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inovasi-1\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0831E0-BBD4-44BA-B93C-C10830619E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E05809A-1CDF-449B-AF5D-49EE7B4BD787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B709C7DF-FADE-47A4-B8D2-24DBE0A35C2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="BebanKerja" sheetId="1" r:id="rId1"/>
-    <sheet name="Master" sheetId="2" r:id="rId2"/>
+    <sheet name="BebanKerja" sheetId="3" r:id="rId1"/>
+    <sheet name="BebanKerja (Contoh)" sheetId="1" r:id="rId2"/>
+    <sheet name="Master" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +141,24 @@
   </si>
   <si>
     <t>Maulana Malik Sebdo Aji</t>
+  </si>
+  <si>
+    <t>Dhimas Reza Destian </t>
+  </si>
+  <si>
+    <t>Muhamad Nur Fauzi </t>
+  </si>
+  <si>
+    <t>Rahmad Febrianto</t>
+  </si>
+  <si>
+    <t>Solihin</t>
+  </si>
+  <si>
+    <t>Sunakyah </t>
+  </si>
+  <si>
+    <t>Wahyu Sanjaya </t>
   </si>
 </sst>
 </file>
@@ -526,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A25E4B1-3173-46A2-8CB2-1EDC9E7B6248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A603895F-944E-473E-91DB-148D829383F3}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,144 +575,64 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -936,6 +875,434 @@
       <c r="D51" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55916330-14DC-4B64-9007-95394BD56B99}">
+          <x14:formula1>
+            <xm:f>Master!$A$2:$A$51</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B51</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A25E4B1-3173-46A2-8CB2-1EDC9E7B6248}">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y03PCSfPOpm6ZWz3tLLUsGMudUO+kZ79kIkK7f9T74UmuFmnV/eGiQFMWPMvmSUrMvvtjG7+R1nbSATHS3gNMQ==" saltValue="5t+pV46Dgf6pUedks4iBgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -952,12 +1319,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C01391-9E90-4DEE-A55C-ECF025B9C1A9}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,136 +1369,148 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -1179,8 +1558,9 @@
       <c r="A51" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A51">
-    <sortCondition ref="A2:A51"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cLuDnk4yYUEi1yQENmcK6L7CqzxvNsQExdh9E9inJoI+JpChALwK75wrRdSayoHZtP+lEp2zfz80Xw9cqxjNHQ==" saltValue="js5TbsliFDDsNFwOVcO4vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A36">
+    <sortCondition ref="A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
